--- a/biology/Zoologie/Geocapromys/Geocapromys.xlsx
+++ b/biology/Zoologie/Geocapromys/Geocapromys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hutias à queue courte
-Geocapromys est un genre de Rongeurs qui comprend des hutias à queue courte[1]. Ces espèces se sont éteintes en 2016.
+Geocapromys est un genre de Rongeurs qui comprend des hutias à queue courte. Ces espèces se sont éteintes en 2016.
 Au départ considéré comme étant un sous-genre de Capromys, le genre a été décrit pour la première fois en 1901 par Frank Michler Chapman (1864-1945), un naturaliste et ornithologue américain.
 </t>
         </is>
@@ -513,13 +525,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (9 janv. 2013)[2], ITIS      (9 janv. 2013)[3] et Catalogue of Life                                   (9 janv. 2013)[4] :
-Geocapromys brownii (J. Fischer, 1830) - le Hutia jamaïcain[1], Hutia de la Jamaïque[5] ou Rat de la Jamaïque[1]
-Geocapromys ingrahami (J. A. Allen, 1891) - Hutia d'Ingraham ou Rat d'Ingraham[5]
-† Geocapromys thoracatus (True, 1888) - Hutia de Little Sawn Island, Rat grimpeur de Little Sawn Island ou encore Rat de Little Sawn Island[5]
-Selon UICN  (9 janv. 2013)[6], il faut ajouter une espèce éteinte :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (9 janv. 2013), ITIS      (9 janv. 2013) et Catalogue of Life                                   (9 janv. 2013) :
+Geocapromys brownii (J. Fischer, 1830) - le Hutia jamaïcain, Hutia de la Jamaïque ou Rat de la Jamaïque
+Geocapromys ingrahami (J. A. Allen, 1891) - Hutia d'Ingraham ou Rat d'Ingraham
+† Geocapromys thoracatus (True, 1888) - Hutia de Little Sawn Island, Rat grimpeur de Little Sawn Island ou encore Rat de Little Sawn Island
+Selon UICN  (9 janv. 2013), il faut ajouter une espèce éteinte :
 Geocapromys brownii (J. Fischer, 1830)
 † Geocapromys columbianus (J. Fischer, 1829)
 Geocapromys ingrahami (J. A. Allen, 1891)
